--- a/URSSRS/Requirements/Requirements v0.5.xlsx
+++ b/URSSRS/Requirements/Requirements v0.5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart Janisse\CloudStation\Studie\SWE\Casus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Life\life-2\URSSRS\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1512,9 +1512,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1527,6 +1524,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2596,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2647,7 +2647,7 @@
       <c r="B2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2674,7 +2674,7 @@
       <c r="B3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -2701,7 +2701,7 @@
       <c r="B4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -2728,7 +2728,7 @@
       <c r="B5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -2755,7 +2755,7 @@
       <c r="B6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -2782,7 +2782,7 @@
       <c r="B7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -2809,7 +2809,7 @@
       <c r="B8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -2836,7 +2836,7 @@
       <c r="B9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -2863,7 +2863,7 @@
       <c r="B10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2890,7 +2890,7 @@
       <c r="B11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -2919,7 +2919,7 @@
       <c r="B12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -2946,7 +2946,7 @@
       <c r="B13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -2973,7 +2973,7 @@
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -3000,7 +3000,7 @@
       <c r="B15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -3436,7 +3436,7 @@
       <c r="B33" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>160</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -4597,15 +4597,15 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
-      <c r="B107" s="27"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
-      <c r="B108" s="27"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
-      <c r="B109" s="27"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
-      <c r="B110" s="27"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
-      <c r="B111" s="27"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
-      <c r="B112" s="27"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
-      <c r="B114" s="27"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
-      <c r="B116" s="27"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
       <c r="E116" s="24"/>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
-      <c r="B117" s="27"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
-      <c r="B118" s="27"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="24"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
-      <c r="B120" s="27"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
-      <c r="B121" s="27"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
-      <c r="B122" s="27"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="24"/>
-      <c r="B123" s="27"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
       <c r="E124" s="24"/>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
-      <c r="B125" s="27"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
       <c r="E125" s="24"/>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
-      <c r="B126" s="27"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
@@ -6184,7 +6184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6195,199 +6195,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>381</v>
       </c>
     </row>
